--- a/excel_reports/Steve_Brooks.xlsx
+++ b/excel_reports/Steve_Brooks.xlsx
@@ -4388,7 +4388,7 @@
         <v>1289</v>
       </c>
       <c r="B4" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>1290</v>
